--- a/cleaned data/STEM_FA22_Schedule.xlsx
+++ b/cleaned data/STEM_FA22_Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="251">
   <si>
     <t>Block</t>
   </si>
@@ -562,6 +562,9 @@
     <t>R</t>
   </si>
   <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
@@ -712,6 +715,9 @@
     <t>MAIN</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
@@ -719,9 +725,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>005</t>
@@ -1194,22 +1197,22 @@
         <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J2">
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1235,22 +1238,22 @@
         <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1276,22 +1279,22 @@
         <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J4">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1317,22 +1320,22 @@
         <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J5">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1358,22 +1361,22 @@
         <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J6">
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1399,22 +1402,22 @@
         <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J7">
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1440,22 +1443,22 @@
         <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J8">
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1481,22 +1484,22 @@
         <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1518,8 +1521,20 @@
       <c r="F10" t="s">
         <v>163</v>
       </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
       <c r="J10">
         <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1545,22 +1560,22 @@
         <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J11">
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1582,8 +1597,20 @@
       <c r="F12" t="s">
         <v>164</v>
       </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
       <c r="J12">
         <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1609,22 +1636,22 @@
         <v>180</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J13">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1650,22 +1677,22 @@
         <v>180</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1687,8 +1714,20 @@
       <c r="F15" t="s">
         <v>166</v>
       </c>
+      <c r="G15" t="s">
+        <v>182</v>
+      </c>
       <c r="J15">
         <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1710,8 +1749,20 @@
       <c r="F16" t="s">
         <v>166</v>
       </c>
+      <c r="G16" t="s">
+        <v>182</v>
+      </c>
       <c r="J16">
         <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1733,8 +1784,20 @@
       <c r="F17" t="s">
         <v>166</v>
       </c>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
       <c r="J17">
         <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>233</v>
+      </c>
+      <c r="L17" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1760,22 +1823,22 @@
         <v>179</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J18">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1797,8 +1860,20 @@
       <c r="F19" t="s">
         <v>162</v>
       </c>
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
       <c r="J19">
         <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L19" t="s">
+        <v>233</v>
+      </c>
+      <c r="M19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1820,8 +1895,20 @@
       <c r="F20" t="s">
         <v>162</v>
       </c>
+      <c r="G20" t="s">
+        <v>182</v>
+      </c>
       <c r="J20">
         <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1843,8 +1930,20 @@
       <c r="F21" t="s">
         <v>162</v>
       </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
       <c r="J21">
         <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1866,8 +1965,20 @@
       <c r="F22" t="s">
         <v>167</v>
       </c>
+      <c r="G22" t="s">
+        <v>182</v>
+      </c>
       <c r="J22">
         <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1889,8 +2000,20 @@
       <c r="F23" t="s">
         <v>167</v>
       </c>
+      <c r="G23" t="s">
+        <v>182</v>
+      </c>
       <c r="J23">
         <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1912,8 +2035,20 @@
       <c r="F24" t="s">
         <v>167</v>
       </c>
+      <c r="G24" t="s">
+        <v>182</v>
+      </c>
       <c r="J24">
         <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1935,8 +2070,20 @@
       <c r="F25" t="s">
         <v>167</v>
       </c>
+      <c r="G25" t="s">
+        <v>182</v>
+      </c>
       <c r="J25">
         <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1958,8 +2105,20 @@
       <c r="F26" t="s">
         <v>167</v>
       </c>
+      <c r="G26" t="s">
+        <v>182</v>
+      </c>
       <c r="J26">
         <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1985,22 +2144,22 @@
         <v>179</v>
       </c>
       <c r="H27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J27">
         <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2023,25 +2182,25 @@
         <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J28">
         <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2064,28 +2223,28 @@
         <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J29">
         <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2107,8 +2266,20 @@
       <c r="F30" t="s">
         <v>168</v>
       </c>
+      <c r="G30" t="s">
+        <v>182</v>
+      </c>
       <c r="J30">
         <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2130,8 +2301,20 @@
       <c r="F31" t="s">
         <v>168</v>
       </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
       <c r="J31">
         <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2154,25 +2337,25 @@
         <v>165</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J32">
         <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2198,22 +2381,22 @@
         <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J33">
         <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2235,8 +2418,20 @@
       <c r="F34" t="s">
         <v>166</v>
       </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
       <c r="J34">
         <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2259,25 +2454,25 @@
         <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J35">
         <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2303,22 +2498,22 @@
         <v>179</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J36">
         <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2341,25 +2536,25 @@
         <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J37">
         <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2385,22 +2580,22 @@
         <v>179</v>
       </c>
       <c r="H38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J38">
         <v>25</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2423,25 +2618,25 @@
         <v>166</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J39">
         <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2467,22 +2662,22 @@
         <v>179</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J40">
         <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2505,25 +2700,25 @@
         <v>165</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J41">
         <v>25</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2549,22 +2744,22 @@
         <v>179</v>
       </c>
       <c r="H42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J42">
         <v>25</v>
       </c>
       <c r="K42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2587,25 +2782,25 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J43">
         <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2627,8 +2822,20 @@
       <c r="F44" t="s">
         <v>169</v>
       </c>
+      <c r="G44" t="s">
+        <v>182</v>
+      </c>
       <c r="J44">
         <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>233</v>
+      </c>
+      <c r="L44" t="s">
+        <v>233</v>
+      </c>
+      <c r="M44" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2648,25 +2855,25 @@
         <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J45">
         <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2689,25 +2896,25 @@
         <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J46">
         <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2730,25 +2937,25 @@
         <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J47">
         <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2771,25 +2978,25 @@
         <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J48">
         <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2815,22 +3022,22 @@
         <v>180</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J49">
         <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L49" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2856,22 +3063,22 @@
         <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J50">
         <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2897,22 +3104,22 @@
         <v>179</v>
       </c>
       <c r="H51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J51">
         <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2935,25 +3142,25 @@
         <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J52">
         <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2979,22 +3186,22 @@
         <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J53">
         <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L53" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3020,22 +3227,22 @@
         <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J54">
         <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3061,22 +3268,22 @@
         <v>179</v>
       </c>
       <c r="H55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J55">
         <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3099,25 +3306,25 @@
         <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J56">
         <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3139,8 +3346,20 @@
       <c r="F57" t="s">
         <v>174</v>
       </c>
+      <c r="G57" t="s">
+        <v>182</v>
+      </c>
       <c r="J57">
         <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>233</v>
+      </c>
+      <c r="L57" t="s">
+        <v>233</v>
+      </c>
+      <c r="M57" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3162,11 +3381,23 @@
       <c r="F58" t="s">
         <v>174</v>
       </c>
+      <c r="G58" t="s">
+        <v>182</v>
+      </c>
       <c r="J58">
         <v>24</v>
       </c>
+      <c r="K58" t="s">
+        <v>233</v>
+      </c>
+      <c r="L58" t="s">
+        <v>233</v>
+      </c>
+      <c r="M58" t="s">
+        <v>233</v>
+      </c>
       <c r="N58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3189,25 +3420,25 @@
         <v>171</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J59">
         <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3230,25 +3461,25 @@
         <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J60">
         <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3274,22 +3505,22 @@
         <v>180</v>
       </c>
       <c r="H61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J61">
         <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3312,25 +3543,25 @@
         <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J62">
         <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L62" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3356,22 +3587,22 @@
         <v>179</v>
       </c>
       <c r="H63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J63">
         <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3394,25 +3625,25 @@
         <v>175</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J64">
         <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3438,22 +3669,22 @@
         <v>179</v>
       </c>
       <c r="H65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J65">
         <v>24</v>
       </c>
       <c r="K65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3476,25 +3707,25 @@
         <v>175</v>
       </c>
       <c r="G66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J66">
         <v>24</v>
       </c>
       <c r="K66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3517,25 +3748,25 @@
         <v>176</v>
       </c>
       <c r="G67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J67">
         <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L67" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3558,25 +3789,25 @@
         <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J68">
         <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3598,8 +3829,20 @@
       <c r="F69" t="s">
         <v>176</v>
       </c>
+      <c r="G69" t="s">
+        <v>182</v>
+      </c>
       <c r="J69">
         <v>18</v>
+      </c>
+      <c r="K69" t="s">
+        <v>233</v>
+      </c>
+      <c r="L69" t="s">
+        <v>233</v>
+      </c>
+      <c r="M69" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3622,25 +3865,25 @@
         <v>176</v>
       </c>
       <c r="G70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J70">
         <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3663,25 +3906,25 @@
         <v>169</v>
       </c>
       <c r="G71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J71">
         <v>24</v>
       </c>
       <c r="K71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3707,22 +3950,22 @@
         <v>180</v>
       </c>
       <c r="H72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J72">
         <v>24</v>
       </c>
       <c r="K72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3745,25 +3988,25 @@
         <v>169</v>
       </c>
       <c r="G73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J73">
         <v>24</v>
       </c>
       <c r="K73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3789,22 +4032,22 @@
         <v>180</v>
       </c>
       <c r="H74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J74">
         <v>24</v>
       </c>
       <c r="K74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3830,22 +4073,22 @@
         <v>179</v>
       </c>
       <c r="H75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J75">
         <v>24</v>
       </c>
       <c r="K75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3868,25 +4111,25 @@
         <v>165</v>
       </c>
       <c r="G76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J76">
         <v>24</v>
       </c>
       <c r="K76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3909,22 +4152,22 @@
         <v>179</v>
       </c>
       <c r="H77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J77">
         <v>24</v>
       </c>
       <c r="K77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3946,8 +4189,20 @@
       <c r="F78" t="s">
         <v>177</v>
       </c>
+      <c r="G78" t="s">
+        <v>182</v>
+      </c>
       <c r="J78">
         <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>233</v>
+      </c>
+      <c r="L78" t="s">
+        <v>233</v>
+      </c>
+      <c r="M78" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3973,22 +4228,22 @@
         <v>180</v>
       </c>
       <c r="H79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J79">
         <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4014,22 +4269,22 @@
         <v>181</v>
       </c>
       <c r="H80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J80">
         <v>24</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4055,22 +4310,22 @@
         <v>180</v>
       </c>
       <c r="H81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J81">
         <v>24</v>
       </c>
       <c r="K81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4093,25 +4348,25 @@
         <v>173</v>
       </c>
       <c r="G82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J82">
         <v>24</v>
       </c>
       <c r="K82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4137,22 +4392,22 @@
         <v>179</v>
       </c>
       <c r="H83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J83">
         <v>24</v>
       </c>
       <c r="K83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4175,25 +4430,25 @@
         <v>178</v>
       </c>
       <c r="G84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J84">
         <v>24</v>
       </c>
       <c r="K84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4219,22 +4474,22 @@
         <v>180</v>
       </c>
       <c r="H85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J85">
         <v>24</v>
       </c>
       <c r="K85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4257,25 +4512,25 @@
         <v>178</v>
       </c>
       <c r="G86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J86">
         <v>24</v>
       </c>
       <c r="K86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4301,22 +4556,22 @@
         <v>179</v>
       </c>
       <c r="H87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J87">
         <v>24</v>
       </c>
       <c r="K87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L87" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4339,25 +4594,25 @@
         <v>178</v>
       </c>
       <c r="G88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J88">
         <v>24</v>
       </c>
       <c r="K88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4383,22 +4638,22 @@
         <v>181</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J89">
         <v>24</v>
       </c>
       <c r="K89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4424,22 +4679,22 @@
         <v>180</v>
       </c>
       <c r="H90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J90">
         <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L90" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
